--- a/inputs/bip/bip_center_standard_level.xlsx
+++ b/inputs/bip/bip_center_standard_level.xlsx
@@ -1246,11 +1246,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1265,59 +1263,59 @@
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>16</v>
       </c>
@@ -1374,8 +1372,10 @@
       <c r="J13" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>22</v>
       </c>
@@ -1408,8 +1408,13 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>30</v>
       </c>
@@ -1442,8 +1447,13 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>37</v>
       </c>
@@ -1476,8 +1486,13 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>42</v>
       </c>
@@ -1510,8 +1525,13 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>45</v>
       </c>
@@ -1544,8 +1564,13 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>48</v>
       </c>
@@ -1578,8 +1603,13 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>50</v>
       </c>
@@ -1612,8 +1642,13 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>51</v>
       </c>
@@ -1646,8 +1681,13 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>52</v>
       </c>
@@ -1680,8 +1720,13 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>53</v>
       </c>
@@ -1714,8 +1759,13 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>54</v>
       </c>
@@ -1748,8 +1798,13 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>56</v>
       </c>
@@ -1782,8 +1837,13 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>57</v>
       </c>
@@ -1816,8 +1876,13 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>58</v>
       </c>
@@ -1850,8 +1915,13 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>60</v>
       </c>
@@ -1884,8 +1954,13 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>61</v>
       </c>
@@ -1918,8 +1993,13 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>62</v>
       </c>
@@ -1952,8 +2032,13 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>63</v>
       </c>
@@ -1986,8 +2071,13 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>65</v>
       </c>
@@ -2020,8 +2110,13 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>67</v>
       </c>
@@ -2054,8 +2149,13 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>69</v>
       </c>
@@ -2088,8 +2188,13 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>72</v>
       </c>
@@ -2122,8 +2227,13 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>73</v>
       </c>
@@ -2156,8 +2266,13 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>74</v>
       </c>
@@ -2190,8 +2305,13 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>75</v>
       </c>
@@ -2224,8 +2344,13 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>76</v>
       </c>
@@ -2258,8 +2383,13 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>77</v>
       </c>
@@ -2292,8 +2422,13 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>80</v>
       </c>
@@ -2326,8 +2461,13 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>81</v>
       </c>
@@ -2360,8 +2500,13 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>82</v>
       </c>
@@ -2394,8 +2539,13 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>83</v>
       </c>
@@ -2428,8 +2578,13 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
         <v>84</v>
       </c>
@@ -2462,8 +2617,13 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
         <v>85</v>
       </c>
@@ -2496,8 +2656,13 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>86</v>
       </c>
@@ -2530,8 +2695,13 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10">
         <v>87</v>
       </c>
@@ -2564,8 +2734,13 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
         <v>88</v>
       </c>
@@ -2598,8 +2773,13 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10">
         <v>89</v>
       </c>
@@ -2632,8 +2812,13 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>91</v>
       </c>
@@ -2666,8 +2851,13 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
         <v>92</v>
       </c>
@@ -2700,8 +2890,13 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
         <v>96</v>
       </c>
@@ -2734,8 +2929,13 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
         <v>97</v>
       </c>
@@ -2768,8 +2968,13 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10">
         <v>99</v>
       </c>
@@ -2802,8 +3007,13 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10">
         <v>100</v>
       </c>
@@ -2836,8 +3046,13 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10">
         <v>101</v>
       </c>
@@ -2870,8 +3085,13 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
         <v>102</v>
       </c>
@@ -2904,8 +3124,13 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>103</v>
       </c>
@@ -2938,8 +3163,13 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="10">
         <v>104</v>
       </c>
@@ -2972,8 +3202,13 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="10">
         <v>105</v>
       </c>
@@ -3006,8 +3241,13 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="10">
         <v>106</v>
       </c>
@@ -3040,8 +3280,13 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10">
         <v>107</v>
       </c>
@@ -3074,8 +3319,13 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10">
         <v>108</v>
       </c>
@@ -3108,8 +3358,13 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>109</v>
       </c>
@@ -3142,8 +3397,13 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10">
         <v>110</v>
       </c>
@@ -3176,8 +3436,13 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>111</v>
       </c>
@@ -3210,8 +3475,13 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10">
         <v>112</v>
       </c>
@@ -3244,8 +3514,13 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
         <v>114</v>
       </c>
@@ -3278,6 +3553,11 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/inputs/bip/bip_center_standard_level.xlsx
+++ b/inputs/bip/bip_center_standard_level.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="555" windowWidth="15480" windowHeight="7650" tabRatio="713"/>
   </bookViews>
   <sheets>
-    <sheet name="PCMAV ESTANDAR NORMAL" sheetId="7" r:id="rId1"/>
+    <sheet name="Abierto" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PCMAV ESTANDAR NORMAL'!$B$12:$J$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abierto!$B$12:$J$68</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1246,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1263,59 +1263,59 @@
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:19" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>16</v>
       </c>
@@ -1372,10 +1372,10 @@
       <c r="J13" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>22</v>
       </c>
@@ -1412,9 +1412,8 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>30</v>
       </c>
@@ -1451,9 +1450,8 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>37</v>
       </c>
@@ -1490,9 +1488,8 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>42</v>
       </c>
@@ -1529,9 +1526,8 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>45</v>
       </c>
@@ -1568,9 +1564,8 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>48</v>
       </c>
@@ -1607,9 +1602,8 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>50</v>
       </c>
@@ -1646,9 +1640,8 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>51</v>
       </c>
@@ -1685,9 +1678,8 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>52</v>
       </c>
@@ -1724,9 +1716,8 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>53</v>
       </c>
@@ -1763,9 +1754,8 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>54</v>
       </c>
@@ -1802,9 +1792,8 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>56</v>
       </c>
@@ -1841,9 +1830,8 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>57</v>
       </c>
@@ -1880,9 +1868,8 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>58</v>
       </c>
@@ -1919,9 +1906,8 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>60</v>
       </c>
@@ -1958,9 +1944,8 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>61</v>
       </c>
@@ -1997,9 +1982,8 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>62</v>
       </c>
@@ -2036,9 +2020,8 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>63</v>
       </c>
@@ -2075,9 +2058,8 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>65</v>
       </c>
@@ -2114,9 +2096,8 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>67</v>
       </c>
@@ -2153,9 +2134,8 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>69</v>
       </c>
@@ -2192,9 +2172,8 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>72</v>
       </c>
@@ -2231,9 +2210,8 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>73</v>
       </c>
@@ -2270,9 +2248,8 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>74</v>
       </c>
@@ -2309,9 +2286,8 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>75</v>
       </c>
@@ -2348,9 +2324,8 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>76</v>
       </c>
@@ -2387,9 +2362,8 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>77</v>
       </c>
@@ -2426,9 +2400,8 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>80</v>
       </c>
@@ -2465,9 +2438,8 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>81</v>
       </c>
@@ -2504,9 +2476,8 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>82</v>
       </c>
@@ -2543,9 +2514,8 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>83</v>
       </c>
@@ -2582,9 +2552,8 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
         <v>84</v>
       </c>
@@ -2621,9 +2590,8 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
         <v>85</v>
       </c>
@@ -2660,9 +2628,8 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>86</v>
       </c>
@@ -2699,9 +2666,9 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
       <c r="B48" s="10">
         <v>87</v>
       </c>
@@ -2738,9 +2705,9 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
       <c r="B49" s="10">
         <v>88</v>
       </c>
@@ -2777,9 +2744,9 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
       <c r="B50" s="10">
         <v>89</v>
       </c>
@@ -2816,9 +2783,9 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
       <c r="B51" s="10">
         <v>91</v>
       </c>
@@ -2855,9 +2822,9 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
       <c r="B52" s="10">
         <v>92</v>
       </c>
@@ -2894,9 +2861,9 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
       <c r="B53" s="10">
         <v>96</v>
       </c>
@@ -2933,9 +2900,9 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
       <c r="B54" s="10">
         <v>97</v>
       </c>
@@ -2972,9 +2939,9 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
       <c r="B55" s="10">
         <v>99</v>
       </c>
@@ -3011,9 +2978,9 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
       <c r="B56" s="10">
         <v>100</v>
       </c>
@@ -3050,9 +3017,9 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
       <c r="B57" s="10">
         <v>101</v>
       </c>
@@ -3089,9 +3056,9 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
       <c r="B58" s="10">
         <v>102</v>
       </c>
@@ -3128,9 +3095,9 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
       <c r="B59" s="10">
         <v>103</v>
       </c>
@@ -3167,9 +3134,9 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60"/>
       <c r="B60" s="10">
         <v>104</v>
       </c>
@@ -3206,9 +3173,9 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61"/>
       <c r="B61" s="10">
         <v>105</v>
       </c>
@@ -3245,9 +3212,9 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62"/>
       <c r="B62" s="10">
         <v>106</v>
       </c>
@@ -3284,9 +3251,9 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-    </row>
-    <row r="63" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
       <c r="B63" s="10">
         <v>107</v>
       </c>
@@ -3323,9 +3290,9 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-    </row>
-    <row r="64" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64"/>
       <c r="B64" s="10">
         <v>108</v>
       </c>
@@ -3362,9 +3329,9 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
       <c r="B65" s="10">
         <v>109</v>
       </c>
@@ -3401,9 +3368,9 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
       <c r="B66" s="10">
         <v>110</v>
       </c>
@@ -3440,9 +3407,9 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67"/>
       <c r="B67" s="10">
         <v>111</v>
       </c>
@@ -3479,9 +3446,9 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68"/>
       <c r="B68" s="10">
         <v>112</v>
       </c>
@@ -3518,9 +3485,8 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-    </row>
-    <row r="69" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
         <v>114</v>
       </c>
@@ -3548,16 +3514,6 @@
       <c r="J69" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/inputs/bip/bip_center_standard_level.xlsx
+++ b/inputs/bip/bip_center_standard_level.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Abierto" sheetId="7" r:id="rId1"/>
+    <sheet name="Cerrados" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abierto!$B$12:$J$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abierto!$B$12:$J$67</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="220">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1246,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1261,61 +1262,68 @@
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:19" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3"/>
       <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5"/>
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6"/>
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7"/>
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8"/>
       <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9"/>
       <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="12" spans="2:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12"/>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1352,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
       <c r="B13" s="10">
         <v>16</v>
       </c>
@@ -1372,10 +1381,9 @@
       <c r="J13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14"/>
       <c r="B14" s="10">
         <v>22</v>
       </c>
@@ -1403,17 +1411,9 @@
       <c r="J14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15"/>
       <c r="B15" s="10">
         <v>30</v>
       </c>
@@ -1441,17 +1441,9 @@
       <c r="J15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16"/>
       <c r="B16" s="10">
         <v>37</v>
       </c>
@@ -1479,17 +1471,9 @@
       <c r="J16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
       <c r="B17" s="10">
         <v>42</v>
       </c>
@@ -1517,17 +1501,8 @@
       <c r="J17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>45</v>
       </c>
@@ -1555,17 +1530,9 @@
       <c r="J18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
       <c r="B19" s="10">
         <v>48</v>
       </c>
@@ -1593,17 +1560,9 @@
       <c r="J19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
       <c r="B20" s="10">
         <v>50</v>
       </c>
@@ -1631,17 +1590,9 @@
       <c r="J20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
       <c r="B21" s="10">
         <v>51</v>
       </c>
@@ -1669,17 +1620,9 @@
       <c r="J21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
       <c r="B22" s="10">
         <v>52</v>
       </c>
@@ -1707,17 +1650,9 @@
       <c r="J22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
       <c r="B23" s="10">
         <v>53</v>
       </c>
@@ -1745,17 +1680,9 @@
       <c r="J23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
       <c r="B24" s="10">
         <v>54</v>
       </c>
@@ -1783,17 +1710,9 @@
       <c r="J24" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
       <c r="B25" s="10">
         <v>56</v>
       </c>
@@ -1821,17 +1740,9 @@
       <c r="J25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
       <c r="B26" s="10">
         <v>57</v>
       </c>
@@ -1859,17 +1770,9 @@
       <c r="J26" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
       <c r="B27" s="10">
         <v>58</v>
       </c>
@@ -1897,17 +1800,9 @@
       <c r="J27" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
       <c r="B28" s="10">
         <v>60</v>
       </c>
@@ -1935,17 +1830,9 @@
       <c r="J28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
       <c r="B29" s="10">
         <v>61</v>
       </c>
@@ -1973,17 +1860,9 @@
       <c r="J29" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
       <c r="B30" s="10">
         <v>62</v>
       </c>
@@ -2011,17 +1890,9 @@
       <c r="J30" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
       <c r="B31" s="10">
         <v>63</v>
       </c>
@@ -2049,17 +1920,8 @@
       <c r="J31" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="2:19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>65</v>
       </c>
@@ -2087,17 +1949,8 @@
       <c r="J32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>67</v>
       </c>
@@ -2125,17 +1978,8 @@
       <c r="J33" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>69</v>
       </c>
@@ -2163,17 +2007,8 @@
       <c r="J34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>72</v>
       </c>
@@ -2201,17 +2036,8 @@
       <c r="J35" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>73</v>
       </c>
@@ -2239,17 +2065,8 @@
       <c r="J36" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>74</v>
       </c>
@@ -2277,17 +2094,8 @@
       <c r="J37" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>75</v>
       </c>
@@ -2315,17 +2123,8 @@
       <c r="J38" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>76</v>
       </c>
@@ -2353,17 +2152,8 @@
       <c r="J39" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>77</v>
       </c>
@@ -2391,17 +2181,8 @@
       <c r="J40" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>80</v>
       </c>
@@ -2429,17 +2210,8 @@
       <c r="J41" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>81</v>
       </c>
@@ -2467,17 +2239,8 @@
       <c r="J42" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>82</v>
       </c>
@@ -2505,17 +2268,8 @@
       <c r="J43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>83</v>
       </c>
@@ -2543,17 +2297,8 @@
       <c r="J44" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
         <v>84</v>
       </c>
@@ -2581,17 +2326,8 @@
       <c r="J45" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
         <v>85</v>
       </c>
@@ -2619,17 +2355,9 @@
       <c r="J46" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47"/>
       <c r="B47" s="10">
         <v>86</v>
       </c>
@@ -2657,17 +2385,8 @@
       <c r="J47" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="10">
         <v>87</v>
@@ -2696,17 +2415,8 @@
       <c r="J48" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="10">
         <v>88</v>
@@ -2735,17 +2445,8 @@
       <c r="J49" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="10">
         <v>89</v>
@@ -2774,17 +2475,8 @@
       <c r="J50" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" s="10">
         <v>91</v>
@@ -2813,17 +2505,8 @@
       <c r="J51" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="10">
         <v>92</v>
@@ -2852,17 +2535,8 @@
       <c r="J52" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="10">
         <v>96</v>
@@ -2891,17 +2565,8 @@
       <c r="J53" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="10">
         <v>97</v>
@@ -2930,17 +2595,8 @@
       <c r="J54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55" s="10">
         <v>99</v>
@@ -2969,17 +2625,8 @@
       <c r="J55" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="10">
         <v>100</v>
@@ -3008,17 +2655,8 @@
       <c r="J56" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57" s="10">
         <v>101</v>
@@ -3047,17 +2685,8 @@
       <c r="J57" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58" s="10">
         <v>102</v>
@@ -3086,17 +2715,8 @@
       <c r="J58" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59" s="10">
         <v>103</v>
@@ -3125,17 +2745,8 @@
       <c r="J59" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60" s="10">
         <v>104</v>
@@ -3164,17 +2775,8 @@
       <c r="J60" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61" s="10">
         <v>105</v>
@@ -3203,17 +2805,8 @@
       <c r="J61" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62" s="10">
         <v>106</v>
@@ -3242,17 +2835,8 @@
       <c r="J62" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="10">
         <v>107</v>
@@ -3281,17 +2865,8 @@
       <c r="J63" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64" s="10">
         <v>108</v>
@@ -3320,17 +2895,8 @@
       <c r="J64" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" s="10">
         <v>109</v>
@@ -3359,17 +2925,8 @@
       <c r="J65" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66" s="10">
         <v>110</v>
@@ -3398,17 +2955,8 @@
       <c r="J66" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67" s="10">
         <v>111</v>
@@ -3437,18 +2985,8 @@
       <c r="J67" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68"/>
+    </row>
+    <row r="68" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10">
         <v>112</v>
       </c>
@@ -3476,17 +3014,8 @@
       <c r="J68" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
         <v>114</v>
       </c>
@@ -3522,4 +3051,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="66.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="19" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/bip/bip_center_standard_level.xlsx
+++ b/inputs/bip/bip_center_standard_level.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Cerrados" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abierto!$A$11:$I$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abierto!$A$11:$I$67</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="216">
   <si>
     <t>CODIGO</t>
   </si>
@@ -260,12 +260,6 @@
     <t>ESTACION CENTRAL</t>
   </si>
   <si>
-    <t>ServiEstado</t>
-  </si>
-  <si>
-    <t>AV. EYZAGUIRRE 3965-3967</t>
-  </si>
-  <si>
     <t>ENTRE CAIMANES Y CENTROAMERICA</t>
   </si>
   <si>
@@ -348,12 +342,6 @@
   </si>
   <si>
     <t>-33.50346359</t>
-  </si>
-  <si>
-    <t>-70.6258666666666</t>
-  </si>
-  <si>
-    <t>-33.6185541666667</t>
   </si>
   <si>
     <t>-70.759683375</t>
@@ -1247,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F12" s="9">
         <v>348971</v>
@@ -1363,10 +1351,10 @@
         <v>6282420</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F13" s="9">
         <v>344607</v>
@@ -1392,10 +1380,10 @@
         <v>6306099</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,13 +1394,13 @@
         <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F14" s="9">
         <v>345834</v>
@@ -1421,10 +1409,10 @@
         <v>6283934</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F15" s="9">
         <v>345029</v>
@@ -1450,10 +1438,10 @@
         <v>6285485</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,10 +1455,10 @@
         <v>65</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F16" s="9">
         <v>355047</v>
@@ -1479,1187 +1467,1187 @@
         <v>6291822</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="9">
+        <v>336549</v>
+      </c>
+      <c r="G17" s="9">
+        <v>6295067</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>45</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="9">
-        <v>349231</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6278984</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F18" s="9">
-        <v>336549</v>
+        <v>359829</v>
       </c>
       <c r="G18" s="9">
-        <v>6295067</v>
+        <v>6308280</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F19" s="9">
-        <v>359829</v>
+        <v>343832</v>
       </c>
       <c r="G19" s="9">
-        <v>6308280</v>
+        <v>6301624</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F20" s="9">
-        <v>343832</v>
+        <v>344838</v>
       </c>
       <c r="G20" s="9">
-        <v>6301624</v>
+        <v>6303385</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F21" s="9">
-        <v>344838</v>
+        <v>358762</v>
       </c>
       <c r="G21" s="9">
-        <v>6303385</v>
+        <v>6306333</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F22" s="9">
-        <v>358762</v>
+        <v>336275</v>
       </c>
       <c r="G22" s="9">
-        <v>6306333</v>
+        <v>6293354</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F23" s="9">
-        <v>336275</v>
+        <v>354426</v>
       </c>
       <c r="G23" s="9">
-        <v>6293354</v>
+        <v>6302414</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F24" s="9">
-        <v>354426</v>
+        <v>342767</v>
       </c>
       <c r="G24" s="9">
-        <v>6302414</v>
+        <v>6299586</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F25" s="9">
-        <v>342767</v>
+        <v>354105</v>
       </c>
       <c r="G25" s="9">
-        <v>6299586</v>
+        <v>6287901</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F26" s="9">
-        <v>354105</v>
+        <v>354319</v>
       </c>
       <c r="G26" s="9">
-        <v>6287901</v>
+        <v>6304628</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F27" s="9">
-        <v>354319</v>
+        <v>336114</v>
       </c>
       <c r="G27" s="9">
-        <v>6304628</v>
+        <v>6298336</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F28" s="9">
-        <v>336114</v>
+        <v>334184</v>
       </c>
       <c r="G28" s="9">
-        <v>6298336</v>
+        <v>6285116</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F29" s="9">
-        <v>334184</v>
+        <v>356610</v>
       </c>
       <c r="G29" s="9">
-        <v>6285116</v>
+        <v>6294939</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F30" s="9">
-        <v>356610</v>
+        <v>346673</v>
       </c>
       <c r="G30" s="9">
-        <v>6294939</v>
+        <v>6298815</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F31" s="9">
-        <v>346673</v>
+        <v>353572</v>
       </c>
       <c r="G31" s="9">
-        <v>6298815</v>
+        <v>6297242</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F32" s="9">
-        <v>353572</v>
+        <v>339168</v>
       </c>
       <c r="G32" s="9">
-        <v>6297242</v>
+        <v>6307883</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F33" s="9">
-        <v>339168</v>
+        <v>353411</v>
       </c>
       <c r="G33" s="9">
-        <v>6307883</v>
+        <v>6289715</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F34" s="9">
-        <v>353411</v>
+        <v>348255</v>
       </c>
       <c r="G34" s="9">
-        <v>6289715</v>
+        <v>6288364</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F35" s="9">
-        <v>348255</v>
+        <v>342823</v>
       </c>
       <c r="G35" s="9">
-        <v>6288364</v>
+        <v>6290433</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F36" s="9">
-        <v>342823</v>
+        <v>342908</v>
       </c>
       <c r="G36" s="9">
-        <v>6290433</v>
+        <v>6291400</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F37" s="9">
-        <v>342908</v>
+        <v>343927</v>
       </c>
       <c r="G37" s="9">
-        <v>6291400</v>
+        <v>6299158</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F38" s="9">
-        <v>343927</v>
+        <v>344942</v>
       </c>
       <c r="G38" s="9">
-        <v>6299158</v>
+        <v>6286654</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F39" s="9">
-        <v>344942</v>
+        <v>348641</v>
       </c>
       <c r="G39" s="9">
-        <v>6286654</v>
+        <v>6303646</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F40" s="9">
-        <v>348641</v>
+        <v>350708</v>
       </c>
       <c r="G40" s="9">
-        <v>6303646</v>
+        <v>6301039</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F41" s="9">
-        <v>350708</v>
+        <v>343093</v>
       </c>
       <c r="G41" s="9">
-        <v>6301039</v>
+        <v>6283705</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F42" s="9">
-        <v>343093</v>
+        <v>338245</v>
       </c>
       <c r="G42" s="9">
-        <v>6283705</v>
+        <v>6299951</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F43" s="9">
-        <v>338245</v>
+        <v>351175</v>
       </c>
       <c r="G43" s="9">
-        <v>6299951</v>
+        <v>6287372</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F44" s="9">
-        <v>351175</v>
+        <v>343635</v>
       </c>
       <c r="G44" s="9">
-        <v>6287372</v>
+        <v>6281615</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F45" s="9">
-        <v>343635</v>
+        <v>354325</v>
       </c>
       <c r="G45" s="9">
-        <v>6281615</v>
+        <v>6283708</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F46" s="9">
-        <v>354325</v>
+        <v>356570</v>
       </c>
       <c r="G46" s="9">
-        <v>6283708</v>
+        <v>6304234</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F47" s="9">
-        <v>356570</v>
+        <v>337240</v>
       </c>
       <c r="G47" s="9">
-        <v>6304234</v>
+        <v>6300547</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F48" s="9">
-        <v>337240</v>
+        <v>341637</v>
       </c>
       <c r="G48" s="9">
-        <v>6300547</v>
+        <v>6299531</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F49" s="9">
-        <v>341637</v>
+        <v>348103</v>
       </c>
       <c r="G49" s="9">
-        <v>6299531</v>
+        <v>6306967</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F50" s="9">
-        <v>348103</v>
+        <v>337734</v>
       </c>
       <c r="G50" s="9">
-        <v>6306967</v>
+        <v>6296125</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F51" s="9">
-        <v>337734</v>
+        <v>355451</v>
       </c>
       <c r="G51" s="9">
-        <v>6296125</v>
+        <v>6284826</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F52" s="9">
-        <v>355451</v>
+        <v>340494</v>
       </c>
       <c r="G52" s="9">
-        <v>6284826</v>
+        <v>6290027</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F53" s="9">
-        <v>340494</v>
+        <v>338362</v>
       </c>
       <c r="G53" s="9">
-        <v>6290027</v>
+        <v>6306746</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F54" s="9">
-        <v>338362</v>
+        <v>335116</v>
       </c>
       <c r="G54" s="9">
-        <v>6306746</v>
+        <v>6290968</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F55" s="9">
-        <v>335116</v>
+        <v>339300</v>
       </c>
       <c r="G55" s="9">
-        <v>6290968</v>
+        <v>6302922</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F56" s="9">
-        <v>339300</v>
+        <v>343958</v>
       </c>
       <c r="G56" s="9">
-        <v>6302922</v>
+        <v>6297315</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F57" s="9">
         <v>343958</v>
@@ -2668,247 +2656,247 @@
         <v>6297315</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F58" s="9">
-        <v>343958</v>
+        <v>343764</v>
       </c>
       <c r="G58" s="9">
-        <v>6297315</v>
+        <v>6292782</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F59" s="9">
-        <v>343764</v>
+        <v>343430</v>
       </c>
       <c r="G59" s="9">
-        <v>6292782</v>
+        <v>6290439</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F60" s="9">
-        <v>343430</v>
+        <v>342367</v>
       </c>
       <c r="G60" s="9">
-        <v>6290439</v>
+        <v>6283872</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F61" s="9">
-        <v>342367</v>
+        <v>342384</v>
       </c>
       <c r="G61" s="9">
-        <v>6283872</v>
+        <v>6282407</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F62" s="9">
-        <v>342384</v>
+        <v>342454</v>
       </c>
       <c r="G62" s="9">
-        <v>6282407</v>
+        <v>6281513</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F63" s="9">
-        <v>342454</v>
+        <v>342560</v>
       </c>
       <c r="G63" s="9">
-        <v>6281513</v>
+        <v>6280143</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F64" s="9">
-        <v>342560</v>
+        <v>342238</v>
       </c>
       <c r="G64" s="9">
-        <v>6280143</v>
+        <v>6278275</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F65" s="9">
-        <v>342238</v>
+        <v>341882</v>
       </c>
       <c r="G65" s="9">
-        <v>6278275</v>
+        <v>6277258</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>62</v>
@@ -2917,80 +2905,51 @@
         <v>89</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F66" s="9">
-        <v>341882</v>
+        <v>344161</v>
       </c>
       <c r="G66" s="9">
-        <v>6277258</v>
+        <v>6294436</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F67" s="9">
-        <v>344161</v>
+        <v>345987</v>
       </c>
       <c r="G67" s="9">
-        <v>6294436</v>
+        <v>6301113</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <v>114</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F68" s="9">
-        <v>345987</v>
-      </c>
-      <c r="G68" s="9">
-        <v>6301113</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
